--- a/Questionnaire/Reesults.xlsx
+++ b/Questionnaire/Reesults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bachelor-thesis\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1651C4C0-44A0-43C9-9FAA-22FF085D03CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7683F2D-5F43-4DAB-ADF0-A396C008F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="615" windowWidth="20100" windowHeight="15885" xr2:uid="{C393E645-F96A-4CF5-964A-9B074FBF50B5}"/>
+    <workbookView xWindow="9345" yWindow="1350" windowWidth="20100" windowHeight="15885" xr2:uid="{C393E645-F96A-4CF5-964A-9B074FBF50B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Auswertung</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Architektur</t>
   </si>
@@ -56,7 +53,10 @@
     <t>Rohini</t>
   </si>
   <si>
-    <t>Ranking</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -422,316 +422,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0A8C5-BC61-486F-A747-34397B9E0BC8}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>RANK(C2,$C$2:$C$11,1)</f>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM(D2:G2)</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>RANK(C3,$C$2:$C$11,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(D3:G3)</f>
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f>RANK(C4,$C$2:$C$11,1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="C4" s="1">
+        <f>SUM(D4:G4)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>RANK(C5,$C$2:$C$11,1)</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(D5:G5)</f>
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>RANK(C6,$C$2:$C$11,1)</f>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(D6:G6)</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B7" s="1">
+        <f>RANK(C7,$C$2:$C$11,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(D7:G7)</f>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f>RANK(C8,$C$2:$C$11,1)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="C8" s="1">
+        <f>SUM(D8:G8)</f>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f>RANK(C9,$C$2:$C$11,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(D9:G9)</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f>RANK(C10,$C$2:$C$11,1)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM(D10:G10)</f>
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <f>SUM(B4:E4)</f>
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f>RANK(C11,$C$2:$C$11,1)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(D11:G11)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F13" si="0">SUM(B5:E5)</f>
-        <v>19</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G11" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="H12" s="1">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Questionnaire/Reesults.xlsx
+++ b/Questionnaire/Reesults.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bachelor-thesis\Questionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bachelor-thesis\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7683F2D-5F43-4DAB-ADF0-A396C008F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="1350" windowWidth="20100" windowHeight="15885" xr2:uid="{C393E645-F96A-4CF5-964A-9B074FBF50B5}"/>
+    <workbookView xWindow="9348" yWindow="1356" windowWidth="20100" windowHeight="15888"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,24 +420,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0A8C5-BC61-486F-A747-34397B9E0BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,16 +460,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>RANK(C2,$C$2:$C$11,1)</f>
-        <v>7</v>
+        <f t="shared" ref="B2:B11" si="0">RANK(C2,$C$2:$C$11,1)</f>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(D2:G2)</f>
+        <f t="shared" ref="C2:C11" si="1">SUM(D2:G2)</f>
         <v>25</v>
       </c>
       <c r="D2" s="1">
@@ -486,23 +485,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>RANK(C3,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(D3:G3)</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -511,16 +510,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>RANK(C4,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(D4:G4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -536,23 +535,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>RANK(C5,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(D5:G5)</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>9</v>
@@ -561,23 +560,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>RANK(C6,$C$2:$C$11,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM(D6:G6)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
@@ -586,16 +585,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>RANK(C7,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(D7:G7)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D7" s="1">
@@ -611,23 +610,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f>RANK(C8,$C$2:$C$11,1)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM(D8:G8)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -636,16 +635,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>RANK(C9,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D9" s="1">
@@ -661,16 +660,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f>RANK(C10,$C$2:$C$11,1)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM(D10:G10)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D10" s="1">
@@ -686,16 +685,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>RANK(C11,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(D11:G11)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D11" s="1">
@@ -714,5 +713,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Questionnaire/Reesults.xlsx
+++ b/Questionnaire/Reesults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bachelor-thesis\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7683F2D-5F43-4DAB-ADF0-A396C008F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D6DEA-89C1-4E52-A324-94973D97C7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="1350" windowWidth="20100" windowHeight="15885" xr2:uid="{C393E645-F96A-4CF5-964A-9B074FBF50B5}"/>
+    <workbookView xWindow="17760" yWindow="3110" windowWidth="15830" windowHeight="14580" xr2:uid="{C393E645-F96A-4CF5-964A-9B074FBF50B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,20 +425,20 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,16 +461,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>RANK(C2,$C$2:$C$11,1)</f>
-        <v>7</v>
+        <f t="shared" ref="B2:B11" si="0">RANK(C2,$C$2:$C$11,1)</f>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(D2:G2)</f>
+        <f t="shared" ref="C2:C11" si="1">SUM(D2:G2)</f>
         <v>25</v>
       </c>
       <c r="D2" s="1">
@@ -486,23 +486,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>RANK(C3,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(D3:G3)</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>RANK(C4,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(D4:G4)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -536,23 +536,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>RANK(C5,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(D5:G5)</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>9</v>
@@ -561,23 +561,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>RANK(C6,$C$2:$C$11,1)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>SUM(D6:G6)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
@@ -586,16 +586,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>RANK(C7,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(D7:G7)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D7" s="1">
@@ -611,23 +611,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f>RANK(C8,$C$2:$C$11,1)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM(D8:G8)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -636,16 +636,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>RANK(C9,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D9" s="1">
@@ -661,16 +661,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f>RANK(C10,$C$2:$C$11,1)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f>SUM(D10:G10)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D10" s="1">
@@ -686,16 +686,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>RANK(C11,$C$2:$C$11,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <f>SUM(D11:G11)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D11" s="1">
